--- a/Program/Other/LY003_底稿_A142放款餘額彙總表.xlsx
+++ b/Program/Other/LY003_底稿_A142放款餘額彙總表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C367A-3634-4C21-A548-11A6C008C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="A142放款餘額彙總表" sheetId="2" r:id="rId1"/>
@@ -210,7 +209,7 @@
     <definedName name="總體法規稽核結論">#REF!</definedName>
     <definedName name="總體數學勾稽結論">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -605,26 +604,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="19">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
-    <numFmt numFmtId="183" formatCode="_._.* \(#,##0\)_%;_._.* #,##0_)_%;_._.* 0_)_%;_._.@_)_%"/>
-    <numFmt numFmtId="184" formatCode="* \(#,##0\);* #,##0_);&quot;-&quot;??_);@"/>
-    <numFmt numFmtId="185" formatCode="* #,##0_);* \(#,##0\);&quot;-&quot;??_);@"/>
-    <numFmt numFmtId="186" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="0%_);\(0%\)"/>
-    <numFmt numFmtId="189" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="190" formatCode="&quot;Yes&quot;;&quot;Yes&quot;;&quot;No&quot;"/>
-    <numFmt numFmtId="191" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="193" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="194" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="196" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="_._.* \(#,##0\)_%;_._.* #,##0_)_%;_._.* 0_)_%;_._.@_)_%"/>
+    <numFmt numFmtId="179" formatCode="* \(#,##0\);* #,##0_);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="180" formatCode="* #,##0_);* \(#,##0\);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="181" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="182" formatCode="m/d"/>
+    <numFmt numFmtId="183" formatCode="0%_);\(0%\)"/>
+    <numFmt numFmtId="184" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="&quot;Yes&quot;;&quot;Yes&quot;;&quot;No&quot;"/>
+    <numFmt numFmtId="186" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="188" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="191" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -1605,14 +1605,14 @@
     </xf>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="14" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="15" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="14" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="15" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="14" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="15" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="14" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="15" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1630,10 +1630,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1800,7 +1800,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1808,7 +1808,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1825,7 +1825,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1917,7 +1917,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2140,7 +2140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2153,13 +2153,13 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2168,10 +2168,10 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="193" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2187,7 +2187,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="87" applyFont="1">
@@ -2199,10 +2199,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="87" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="87" applyFont="1">
@@ -2210,9 +2210,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="87" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="12" xfId="163" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="87" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2220,32 +2217,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="87" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="10" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="10" xfId="163" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="12" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="10" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="87" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="163" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="87" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="163" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="163" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="87" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2264,308 +2246,329 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="87" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="87" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="87" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="34" fillId="0" borderId="10" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="34" fillId="0" borderId="10" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="87" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="12" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="12" xfId="163" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="12" xfId="163" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="10" xfId="163" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="10" xfId="163" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="10" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="10" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="87" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="286">
-    <cellStyle name="_x000a_shell=progma" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 輔色1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 輔色1 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 輔色1 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 輔色2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 輔色2 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - 輔色2 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - 輔色3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - 輔色3 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - 輔色3 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - 輔色4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 輔色4 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - 輔色4 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - 輔色5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 輔色5 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 輔色5 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - 輔色6 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - 輔色6 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - 輔色6 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="40% - 輔色1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% - 輔色1 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="40% - 輔色1 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% - 輔色2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - 輔色2 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="40% - 輔色2 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40% - 輔色3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="40% - 輔色3 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="40% - 輔色3 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="40% - 輔色4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="40% - 輔色4 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="40% - 輔色4 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 輔色5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="40% - 輔色5 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="40% - 輔色5 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 輔色6 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="40% - 輔色6 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="40% - 輔色6 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="60% - 輔色1 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="60% - 輔色1 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 輔色1 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="60% - 輔色2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="60% - 輔色2 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="60% - 輔色2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="60% - 輔色3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="60% - 輔色3 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="60% - 輔色3 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="60% - 輔色4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="60% - 輔色4 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="60% - 輔色4 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="60% - 輔色5 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="60% - 輔色5 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="60% - 輔色5 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="60% - 輔色6 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="60% - 輔色6 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="60% - 輔色6 3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Centered Heading" xfId="60" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Comma [0]_EQ(Asia)" xfId="61" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Comma_Capital Model Draft 022005" xfId="62" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="CR Comma" xfId="63" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Credit" xfId="64" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Credit subtotal" xfId="65" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Credit Total" xfId="66" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Debit" xfId="67" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Debit subtotal" xfId="68" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Debit Total" xfId="69" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Euro" xfId="70" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Footnote" xfId="71" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Header1" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Header2" xfId="73" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Heading" xfId="74" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Heading No Underline" xfId="75" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Normal - Style1" xfId="76" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Normal_A" xfId="77" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="oft Excel]_x000d__x000a_Comment=The open=/f lines load custom functions into the Paste Function list._x000d__x000a_Maximized=3_x000d__x000a_AutoFormat=" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Percent (0)" xfId="79" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="section" xfId="80" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Table Heading" xfId="81" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Table Title" xfId="82" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Table Units" xfId="83" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Tickmark" xfId="84" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="一月" xfId="85" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="_x000a_shell=progma" xfId="5"/>
+    <cellStyle name="20% - 輔色1 2" xfId="6"/>
+    <cellStyle name="20% - 輔色1 2 2" xfId="7"/>
+    <cellStyle name="20% - 輔色1 3 2" xfId="8"/>
+    <cellStyle name="20% - 輔色2 2" xfId="9"/>
+    <cellStyle name="20% - 輔色2 2 2" xfId="10"/>
+    <cellStyle name="20% - 輔色2 3 2" xfId="11"/>
+    <cellStyle name="20% - 輔色3 2" xfId="12"/>
+    <cellStyle name="20% - 輔色3 2 2" xfId="13"/>
+    <cellStyle name="20% - 輔色3 3 2" xfId="14"/>
+    <cellStyle name="20% - 輔色4 2" xfId="15"/>
+    <cellStyle name="20% - 輔色4 2 2" xfId="16"/>
+    <cellStyle name="20% - 輔色4 3 2" xfId="17"/>
+    <cellStyle name="20% - 輔色5 2" xfId="18"/>
+    <cellStyle name="20% - 輔色5 2 2" xfId="19"/>
+    <cellStyle name="20% - 輔色5 3 2" xfId="20"/>
+    <cellStyle name="20% - 輔色6 2" xfId="21"/>
+    <cellStyle name="20% - 輔色6 2 2" xfId="22"/>
+    <cellStyle name="20% - 輔色6 3 2" xfId="23"/>
+    <cellStyle name="40% - 輔色1 2" xfId="24"/>
+    <cellStyle name="40% - 輔色1 2 2" xfId="25"/>
+    <cellStyle name="40% - 輔色1 3 2" xfId="26"/>
+    <cellStyle name="40% - 輔色2 2" xfId="27"/>
+    <cellStyle name="40% - 輔色2 2 2" xfId="28"/>
+    <cellStyle name="40% - 輔色2 3 2" xfId="29"/>
+    <cellStyle name="40% - 輔色3 2" xfId="30"/>
+    <cellStyle name="40% - 輔色3 2 2" xfId="31"/>
+    <cellStyle name="40% - 輔色3 3 2" xfId="32"/>
+    <cellStyle name="40% - 輔色4 2" xfId="33"/>
+    <cellStyle name="40% - 輔色4 2 2" xfId="34"/>
+    <cellStyle name="40% - 輔色4 3 2" xfId="35"/>
+    <cellStyle name="40% - 輔色5 2" xfId="36"/>
+    <cellStyle name="40% - 輔色5 2 2" xfId="37"/>
+    <cellStyle name="40% - 輔色5 3 2" xfId="38"/>
+    <cellStyle name="40% - 輔色6 2" xfId="39"/>
+    <cellStyle name="40% - 輔色6 2 2" xfId="40"/>
+    <cellStyle name="40% - 輔色6 3 2" xfId="41"/>
+    <cellStyle name="60% - 輔色1 2" xfId="42"/>
+    <cellStyle name="60% - 輔色1 2 2" xfId="43"/>
+    <cellStyle name="60% - 輔色1 3 2" xfId="44"/>
+    <cellStyle name="60% - 輔色2 2" xfId="45"/>
+    <cellStyle name="60% - 輔色2 2 2" xfId="46"/>
+    <cellStyle name="60% - 輔色2 3 2" xfId="47"/>
+    <cellStyle name="60% - 輔色3 2" xfId="48"/>
+    <cellStyle name="60% - 輔色3 2 2" xfId="49"/>
+    <cellStyle name="60% - 輔色3 3 2" xfId="50"/>
+    <cellStyle name="60% - 輔色4 2" xfId="51"/>
+    <cellStyle name="60% - 輔色4 2 2" xfId="52"/>
+    <cellStyle name="60% - 輔色4 3 2" xfId="53"/>
+    <cellStyle name="60% - 輔色5 2" xfId="54"/>
+    <cellStyle name="60% - 輔色5 2 2" xfId="55"/>
+    <cellStyle name="60% - 輔色5 3 2" xfId="56"/>
+    <cellStyle name="60% - 輔色6 2" xfId="57"/>
+    <cellStyle name="60% - 輔色6 2 2" xfId="58"/>
+    <cellStyle name="60% - 輔色6 3 2" xfId="59"/>
+    <cellStyle name="Centered Heading" xfId="60"/>
+    <cellStyle name="Comma [0]_EQ(Asia)" xfId="61"/>
+    <cellStyle name="Comma_Capital Model Draft 022005" xfId="62"/>
+    <cellStyle name="CR Comma" xfId="63"/>
+    <cellStyle name="Credit" xfId="64"/>
+    <cellStyle name="Credit subtotal" xfId="65"/>
+    <cellStyle name="Credit Total" xfId="66"/>
+    <cellStyle name="Debit" xfId="67"/>
+    <cellStyle name="Debit subtotal" xfId="68"/>
+    <cellStyle name="Debit Total" xfId="69"/>
+    <cellStyle name="Euro" xfId="70"/>
+    <cellStyle name="Footnote" xfId="71"/>
+    <cellStyle name="Header1" xfId="72"/>
+    <cellStyle name="Header2" xfId="73"/>
+    <cellStyle name="Heading" xfId="74"/>
+    <cellStyle name="Heading No Underline" xfId="75"/>
+    <cellStyle name="Normal - Style1" xfId="76"/>
+    <cellStyle name="Normal_A" xfId="77"/>
+    <cellStyle name="oft Excel]_x000d__x000a_Comment=The open=/f lines load custom functions into the Paste Function list._x000d__x000a_Maximized=3_x000d__x000a_AutoFormat=" xfId="78"/>
+    <cellStyle name="Percent (0)" xfId="79"/>
+    <cellStyle name="section" xfId="80"/>
+    <cellStyle name="Table Heading" xfId="81"/>
+    <cellStyle name="Table Title" xfId="82"/>
+    <cellStyle name="Table Units" xfId="83"/>
+    <cellStyle name="Tickmark" xfId="84"/>
+    <cellStyle name="一月" xfId="85"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 10" xfId="86" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="一般 10 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="一般 11" xfId="88" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="一般 11 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="一般 11 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="一般 12" xfId="91" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="一般 13" xfId="92" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="一般 14" xfId="93" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="一般 15" xfId="94" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="一般 16" xfId="95" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="一般 17" xfId="96" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="一般 18" xfId="97" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="一般 19" xfId="98" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="一般 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="一般 2 10" xfId="100" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="一般 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="一般 2 2 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="一般 2 2 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="一般 2 2 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="一般 2 2 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="一般 2 2 7" xfId="106" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="一般 2 2 8" xfId="107" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="一般 2 3" xfId="108" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="一般 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="一般 2 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="一般 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="一般 2 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="一般 2 8" xfId="113" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="一般 2 9" xfId="114" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="一般 2_RBC相關報表-產險" xfId="115" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="一般 20" xfId="116" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="一般 21" xfId="117" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="一般 22" xfId="118" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="一般 23" xfId="119" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="一般 24" xfId="120" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="一般 25" xfId="121" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="一般 26" xfId="122" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="一般 27" xfId="123" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="一般 3" xfId="124" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="一般 3 2" xfId="125" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="一般 3 2 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="一般 3 3" xfId="127" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="一般 3 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="一般 3 4" xfId="129" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="一般 4" xfId="130" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="一般 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="一般 4 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="一般 5" xfId="133" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="一般 5 2" xfId="134" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="一般 5 3" xfId="135" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="一般 6" xfId="136" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="一般 6 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="一般 6 3" xfId="138" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="一般 7" xfId="139" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="一般 7 2" xfId="140" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="一般 7 3" xfId="141" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="一般 8" xfId="142" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="一般 8 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="一般 8 3" xfId="144" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="一般 9" xfId="145" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="一般 9 2" xfId="146" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="一般 9 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="一般_921002保險業月報yaotung" xfId="1" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="一般_半年報檢查報表-壽險" xfId="2" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="千分位 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="千分位 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="千分位 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="千分位 2 3 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="千分位 2 3 3" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="千分位 2 4" xfId="153" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="千分位 2 4 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="千分位 2 4 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="千分位 2 5" xfId="156" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="千分位 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="千分位 2 7" xfId="158" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="千分位 2 8" xfId="159" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="千分位 2 9" xfId="3" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="千分位 3" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="千分位 3 2" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="千分位 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="千分位 3 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="千分位 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="千分位 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="千分位 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="千分位 6" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="千分位 7" xfId="168" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="千分位 8" xfId="169" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="千分位 8 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="千分位[0] 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="千分位[0] 2 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="千分位[0] 2 3" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="千分位[0] 3" xfId="174" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="中等 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="中等 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="中等 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="合計 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="合計 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="合計 3 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="好 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="好 2 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="好 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="好_3-保險法第3條利害關係人放款餘額表_103" xfId="184" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="好_40911201 12~1月明細" xfId="185" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="好_RBC相關報表-產險" xfId="186" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="好_RBC相關報表-壽險(100.11.10)" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="好_RBC相關暨修訂報表-產險0811" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="好_半年報檢查報表-業務類強制車險-產險" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="好_再保險資產表_100年適用11.21" xfId="190" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="好_年報檢查報表-業務類強制車險-產險-修正1129" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="好_非RBC相關報表-產險" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="好_非RBC相關報表-產險(0512)" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="百分比 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="百分比 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="百分比 2 2 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="百分比 2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="百分比 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="百分比 3" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="百分比 4" xfId="200" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="百分比 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="百分比 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="百分比 7" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="計算方式 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="計算方式 2 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="計算方式 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="桁区切り 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="貨幣 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="貨幣 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="貨幣 2 3" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="貨幣[0]" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="連結的儲存格 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="連結的儲存格 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="連結的儲存格 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="備註 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="備註 2 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="備註 3" xfId="217" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="備註 3 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="超連結 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="說明文字 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="說明文字 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="說明文字 3 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="輔色1 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="輔色1 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="輔色1 3 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="輔色2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="輔色2 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="輔色2 3 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="輔色3 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="輔色3 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="輔色3 3 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="輔色4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="輔色4 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="輔色4 3 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="輔色5 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="輔色5 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="輔色5 3 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="輔色6 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="輔色6 2 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="輔色6 3 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="標準_01 Per Risk Info 20080229" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="標題 1 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="標題 1 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="標題 1 3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="標題 2 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="標題 2 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="標題 2 3 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="標題 3 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="標題 3 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="標題 3 3 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="標題 4 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="標題 4 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="標題 4 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="標題 5" xfId="254" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="標題 5 2" xfId="255" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="標題 6 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="樣式 1" xfId="257" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="輸入 2" xfId="258" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="輸入 2 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="輸入 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="輸出 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="輸出 2 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="輸出 3 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="檢查儲存格 2" xfId="264" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="檢查儲存格 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="檢查儲存格 3 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="壞 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="壞 2 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="壞 3 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="壞_3-保險法第3條利害關係人放款餘額表_103" xfId="270" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="壞_40911201 12~1月明細" xfId="271" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="壞_RBC相關報表-產險" xfId="272" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="壞_RBC相關報表-壽險(100.11.10)" xfId="273" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="壞_RBC相關暨修訂報表-產險0811" xfId="274" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="壞_火險合約" xfId="275" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="壞_火險臨分" xfId="276" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="壞_半年報檢查報表-業務類強制車險-產險" xfId="277" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="壞_再保險資產表_100年適用11.21" xfId="278" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="壞_年報檢查報表-業務類強制車險-產險-修正1129" xfId="279" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="壞_非RBC相關報表-產險" xfId="280" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="壞_非RBC相關報表-產險(0512)" xfId="281" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="壞_莫拉克颱風 (臨分業務)" xfId="282" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="警告文字 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="警告文字 2 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="警告文字 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="一般 10" xfId="86"/>
+    <cellStyle name="一般 10 2" xfId="87"/>
+    <cellStyle name="一般 11" xfId="88"/>
+    <cellStyle name="一般 11 2" xfId="89"/>
+    <cellStyle name="一般 11 3" xfId="90"/>
+    <cellStyle name="一般 12" xfId="91"/>
+    <cellStyle name="一般 13" xfId="92"/>
+    <cellStyle name="一般 14" xfId="93"/>
+    <cellStyle name="一般 15" xfId="94"/>
+    <cellStyle name="一般 16" xfId="95"/>
+    <cellStyle name="一般 17" xfId="96"/>
+    <cellStyle name="一般 18" xfId="97"/>
+    <cellStyle name="一般 19" xfId="98"/>
+    <cellStyle name="一般 2" xfId="99"/>
+    <cellStyle name="一般 2 10" xfId="100"/>
+    <cellStyle name="一般 2 2" xfId="4"/>
+    <cellStyle name="一般 2 2 2" xfId="101"/>
+    <cellStyle name="一般 2 2 3" xfId="102"/>
+    <cellStyle name="一般 2 2 4" xfId="103"/>
+    <cellStyle name="一般 2 2 5" xfId="104"/>
+    <cellStyle name="一般 2 2 6" xfId="105"/>
+    <cellStyle name="一般 2 2 7" xfId="106"/>
+    <cellStyle name="一般 2 2 8" xfId="107"/>
+    <cellStyle name="一般 2 3" xfId="108"/>
+    <cellStyle name="一般 2 4" xfId="109"/>
+    <cellStyle name="一般 2 5" xfId="110"/>
+    <cellStyle name="一般 2 6" xfId="111"/>
+    <cellStyle name="一般 2 7" xfId="112"/>
+    <cellStyle name="一般 2 8" xfId="113"/>
+    <cellStyle name="一般 2 9" xfId="114"/>
+    <cellStyle name="一般 2_RBC相關報表-產險" xfId="115"/>
+    <cellStyle name="一般 20" xfId="116"/>
+    <cellStyle name="一般 21" xfId="117"/>
+    <cellStyle name="一般 22" xfId="118"/>
+    <cellStyle name="一般 23" xfId="119"/>
+    <cellStyle name="一般 24" xfId="120"/>
+    <cellStyle name="一般 25" xfId="121"/>
+    <cellStyle name="一般 26" xfId="122"/>
+    <cellStyle name="一般 27" xfId="123"/>
+    <cellStyle name="一般 3" xfId="124"/>
+    <cellStyle name="一般 3 2" xfId="125"/>
+    <cellStyle name="一般 3 2 2" xfId="126"/>
+    <cellStyle name="一般 3 3" xfId="127"/>
+    <cellStyle name="一般 3 3 2" xfId="128"/>
+    <cellStyle name="一般 3 4" xfId="129"/>
+    <cellStyle name="一般 4" xfId="130"/>
+    <cellStyle name="一般 4 2" xfId="131"/>
+    <cellStyle name="一般 4 3" xfId="132"/>
+    <cellStyle name="一般 5" xfId="133"/>
+    <cellStyle name="一般 5 2" xfId="134"/>
+    <cellStyle name="一般 5 3" xfId="135"/>
+    <cellStyle name="一般 6" xfId="136"/>
+    <cellStyle name="一般 6 2" xfId="137"/>
+    <cellStyle name="一般 6 3" xfId="138"/>
+    <cellStyle name="一般 7" xfId="139"/>
+    <cellStyle name="一般 7 2" xfId="140"/>
+    <cellStyle name="一般 7 3" xfId="141"/>
+    <cellStyle name="一般 8" xfId="142"/>
+    <cellStyle name="一般 8 2" xfId="143"/>
+    <cellStyle name="一般 8 3" xfId="144"/>
+    <cellStyle name="一般 9" xfId="145"/>
+    <cellStyle name="一般 9 2" xfId="146"/>
+    <cellStyle name="一般 9 3" xfId="147"/>
+    <cellStyle name="一般_921002保險業月報yaotung" xfId="1"/>
+    <cellStyle name="一般_半年報檢查報表-壽險" xfId="2"/>
+    <cellStyle name="千分位 2" xfId="148"/>
+    <cellStyle name="千分位 2 2" xfId="149"/>
+    <cellStyle name="千分位 2 3" xfId="150"/>
+    <cellStyle name="千分位 2 3 2" xfId="151"/>
+    <cellStyle name="千分位 2 3 3" xfId="152"/>
+    <cellStyle name="千分位 2 4" xfId="153"/>
+    <cellStyle name="千分位 2 4 2" xfId="154"/>
+    <cellStyle name="千分位 2 4 3" xfId="155"/>
+    <cellStyle name="千分位 2 5" xfId="156"/>
+    <cellStyle name="千分位 2 6" xfId="157"/>
+    <cellStyle name="千分位 2 7" xfId="158"/>
+    <cellStyle name="千分位 2 8" xfId="159"/>
+    <cellStyle name="千分位 2 9" xfId="3"/>
+    <cellStyle name="千分位 3" xfId="160"/>
+    <cellStyle name="千分位 3 2" xfId="161"/>
+    <cellStyle name="千分位 3 3" xfId="162"/>
+    <cellStyle name="千分位 3 4" xfId="163"/>
+    <cellStyle name="千分位 4" xfId="164"/>
+    <cellStyle name="千分位 4 2" xfId="165"/>
+    <cellStyle name="千分位 5" xfId="166"/>
+    <cellStyle name="千分位 6" xfId="167"/>
+    <cellStyle name="千分位 7" xfId="168"/>
+    <cellStyle name="千分位 8" xfId="169"/>
+    <cellStyle name="千分位 8 2" xfId="170"/>
+    <cellStyle name="千分位[0] 2" xfId="171"/>
+    <cellStyle name="千分位[0] 2 2" xfId="172"/>
+    <cellStyle name="千分位[0] 2 3" xfId="173"/>
+    <cellStyle name="千分位[0] 3" xfId="174"/>
+    <cellStyle name="中等 2" xfId="175"/>
+    <cellStyle name="中等 2 2" xfId="176"/>
+    <cellStyle name="中等 3 2" xfId="177"/>
+    <cellStyle name="合計 2" xfId="178"/>
+    <cellStyle name="合計 2 2" xfId="179"/>
+    <cellStyle name="合計 3 2" xfId="180"/>
+    <cellStyle name="好 2" xfId="181"/>
+    <cellStyle name="好 2 2" xfId="182"/>
+    <cellStyle name="好 3 2" xfId="183"/>
+    <cellStyle name="好_3-保險法第3條利害關係人放款餘額表_103" xfId="184"/>
+    <cellStyle name="好_40911201 12~1月明細" xfId="185"/>
+    <cellStyle name="好_RBC相關報表-產險" xfId="186"/>
+    <cellStyle name="好_RBC相關報表-壽險(100.11.10)" xfId="187"/>
+    <cellStyle name="好_RBC相關暨修訂報表-產險0811" xfId="188"/>
+    <cellStyle name="好_半年報檢查報表-業務類強制車險-產險" xfId="189"/>
+    <cellStyle name="好_再保險資產表_100年適用11.21" xfId="190"/>
+    <cellStyle name="好_年報檢查報表-業務類強制車險-產險-修正1129" xfId="191"/>
+    <cellStyle name="好_非RBC相關報表-產險" xfId="192"/>
+    <cellStyle name="好_非RBC相關報表-產險(0512)" xfId="193"/>
+    <cellStyle name="百分比 2" xfId="194"/>
+    <cellStyle name="百分比 2 2" xfId="195"/>
+    <cellStyle name="百分比 2 2 2" xfId="196"/>
+    <cellStyle name="百分比 2 3" xfId="197"/>
+    <cellStyle name="百分比 2 4" xfId="198"/>
+    <cellStyle name="百分比 3" xfId="199"/>
+    <cellStyle name="百分比 4" xfId="200"/>
+    <cellStyle name="百分比 5" xfId="201"/>
+    <cellStyle name="百分比 6" xfId="202"/>
+    <cellStyle name="百分比 7" xfId="203"/>
+    <cellStyle name="計算方式 2" xfId="204"/>
+    <cellStyle name="計算方式 2 2" xfId="205"/>
+    <cellStyle name="計算方式 3 2" xfId="206"/>
+    <cellStyle name="桁区切り 2" xfId="207"/>
+    <cellStyle name="貨幣 2" xfId="208"/>
+    <cellStyle name="貨幣 2 2" xfId="209"/>
+    <cellStyle name="貨幣 2 3" xfId="210"/>
+    <cellStyle name="貨幣[0]" xfId="211"/>
+    <cellStyle name="連結的儲存格 2" xfId="212"/>
+    <cellStyle name="連結的儲存格 2 2" xfId="213"/>
+    <cellStyle name="連結的儲存格 3 2" xfId="214"/>
+    <cellStyle name="備註 2" xfId="215"/>
+    <cellStyle name="備註 2 2" xfId="216"/>
+    <cellStyle name="備註 3" xfId="217"/>
+    <cellStyle name="備註 3 2" xfId="218"/>
+    <cellStyle name="超連結 2" xfId="219"/>
+    <cellStyle name="說明文字 2" xfId="220"/>
+    <cellStyle name="說明文字 2 2" xfId="221"/>
+    <cellStyle name="說明文字 3 2" xfId="222"/>
+    <cellStyle name="輔色1 2" xfId="223"/>
+    <cellStyle name="輔色1 2 2" xfId="224"/>
+    <cellStyle name="輔色1 3 2" xfId="225"/>
+    <cellStyle name="輔色2 2" xfId="226"/>
+    <cellStyle name="輔色2 2 2" xfId="227"/>
+    <cellStyle name="輔色2 3 2" xfId="228"/>
+    <cellStyle name="輔色3 2" xfId="229"/>
+    <cellStyle name="輔色3 2 2" xfId="230"/>
+    <cellStyle name="輔色3 3 2" xfId="231"/>
+    <cellStyle name="輔色4 2" xfId="232"/>
+    <cellStyle name="輔色4 2 2" xfId="233"/>
+    <cellStyle name="輔色4 3 2" xfId="234"/>
+    <cellStyle name="輔色5 2" xfId="235"/>
+    <cellStyle name="輔色5 2 2" xfId="236"/>
+    <cellStyle name="輔色5 3 2" xfId="237"/>
+    <cellStyle name="輔色6 2" xfId="238"/>
+    <cellStyle name="輔色6 2 2" xfId="239"/>
+    <cellStyle name="輔色6 3 2" xfId="240"/>
+    <cellStyle name="標準_01 Per Risk Info 20080229" xfId="241"/>
+    <cellStyle name="標題 1 2" xfId="242"/>
+    <cellStyle name="標題 1 2 2" xfId="243"/>
+    <cellStyle name="標題 1 3 2" xfId="244"/>
+    <cellStyle name="標題 2 2" xfId="245"/>
+    <cellStyle name="標題 2 2 2" xfId="246"/>
+    <cellStyle name="標題 2 3 2" xfId="247"/>
+    <cellStyle name="標題 3 2" xfId="248"/>
+    <cellStyle name="標題 3 2 2" xfId="249"/>
+    <cellStyle name="標題 3 3 2" xfId="250"/>
+    <cellStyle name="標題 4 2" xfId="251"/>
+    <cellStyle name="標題 4 2 2" xfId="252"/>
+    <cellStyle name="標題 4 3 2" xfId="253"/>
+    <cellStyle name="標題 5" xfId="254"/>
+    <cellStyle name="標題 5 2" xfId="255"/>
+    <cellStyle name="標題 6 2" xfId="256"/>
+    <cellStyle name="樣式 1" xfId="257"/>
+    <cellStyle name="輸入 2" xfId="258"/>
+    <cellStyle name="輸入 2 2" xfId="259"/>
+    <cellStyle name="輸入 3 2" xfId="260"/>
+    <cellStyle name="輸出 2" xfId="261"/>
+    <cellStyle name="輸出 2 2" xfId="262"/>
+    <cellStyle name="輸出 3 2" xfId="263"/>
+    <cellStyle name="檢查儲存格 2" xfId="264"/>
+    <cellStyle name="檢查儲存格 2 2" xfId="265"/>
+    <cellStyle name="檢查儲存格 3 2" xfId="266"/>
+    <cellStyle name="壞 2" xfId="267"/>
+    <cellStyle name="壞 2 2" xfId="268"/>
+    <cellStyle name="壞 3 2" xfId="269"/>
+    <cellStyle name="壞_3-保險法第3條利害關係人放款餘額表_103" xfId="270"/>
+    <cellStyle name="壞_40911201 12~1月明細" xfId="271"/>
+    <cellStyle name="壞_RBC相關報表-產險" xfId="272"/>
+    <cellStyle name="壞_RBC相關報表-壽險(100.11.10)" xfId="273"/>
+    <cellStyle name="壞_RBC相關暨修訂報表-產險0811" xfId="274"/>
+    <cellStyle name="壞_火險合約" xfId="275"/>
+    <cellStyle name="壞_火險臨分" xfId="276"/>
+    <cellStyle name="壞_半年報檢查報表-業務類強制車險-產險" xfId="277"/>
+    <cellStyle name="壞_再保險資產表_100年適用11.21" xfId="278"/>
+    <cellStyle name="壞_年報檢查報表-業務類強制車險-產險-修正1129" xfId="279"/>
+    <cellStyle name="壞_非RBC相關報表-產險" xfId="280"/>
+    <cellStyle name="壞_非RBC相關報表-產險(0512)" xfId="281"/>
+    <cellStyle name="壞_莫拉克颱風 (臨分業務)" xfId="282"/>
+    <cellStyle name="警告文字 2" xfId="283"/>
+    <cellStyle name="警告文字 2 2" xfId="284"/>
+    <cellStyle name="警告文字 3 2" xfId="285"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2581,7 +2584,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1RECORD"/>
@@ -2662,7 +2665,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -2881,7 +2884,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2982,7 +2985,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3067,7 +3070,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -4103,7 +4106,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -4258,7 +4261,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -4621,7 +4624,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -5054,7 +5057,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -5107,11 +5110,41 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="3">
+        <row r="6">
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="8">
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="21">
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="28">
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -5119,9 +5152,20 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="15">
+        <row r="25">
+          <cell r="O25">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17">
+        <row r="8">
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="44">
           <cell r="G44">
             <v>0</v>
@@ -5143,7 +5187,13 @@
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
+      <sheetData sheetId="33">
+        <row r="7">
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
       <sheetData sheetId="36"/>
@@ -5236,23 +5286,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5288,23 +5321,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5480,34 +5496,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="2.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5523,7 +5540,7 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="34">
         <v>201909</v>
       </c>
     </row>
@@ -5531,11 +5548,11 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5543,323 +5560,323 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="37" t="s">
+      <c r="R4" s="32"/>
+      <c r="S4" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="C5" s="36"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="31"/>
     </row>
-    <row r="6" spans="2:19" s="42" customFormat="1" ht="34">
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="2:19" s="35" customFormat="1" ht="32.4">
+      <c r="B6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="43" t="s">
+      <c r="R6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:19" s="35" customFormat="1">
-      <c r="B7" s="44">
+    <row r="7" spans="2:19" s="29" customFormat="1">
+      <c r="B7" s="37">
         <v>-1</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="37">
         <v>-2</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="37">
         <v>-3</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="37">
         <v>-4</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="37">
         <v>-5</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="37">
         <v>-6</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="37">
         <v>-7</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="37">
         <v>-8</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="37">
         <v>-9</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="37">
         <v>-10</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="37">
         <v>-11</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="37">
         <v>-12</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="37">
         <v>-13</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="37">
         <v>-14</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="37">
         <v>-15</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="37">
         <v>-16</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="37">
         <v>-17</v>
       </c>
-      <c r="S7" s="44">
+      <c r="S7" s="37">
         <v>-18</v>
       </c>
     </row>
-    <row r="8" spans="2:19" s="32" customFormat="1" ht="15.5">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="2:19" s="27" customFormat="1" ht="15">
+      <c r="B8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="33"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="28"/>
     </row>
-    <row r="9" spans="2:19" s="32" customFormat="1">
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="2:19" s="27" customFormat="1" ht="15">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="33"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="2:19" s="21" customFormat="1">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="26" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:19" s="21" customFormat="1">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="26"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="25"/>
     </row>
     <row r="12" spans="2:19" s="21" customFormat="1">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="26" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:19" s="21" customFormat="1">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="26" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:19" s="21" customFormat="1" ht="15.5">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+    <row r="14" spans="2:19" s="21" customFormat="1" ht="15">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
       <c r="S14" s="22"/>
     </row>
     <row r="15" spans="2:19" s="18" customFormat="1">
@@ -5939,26 +5956,26 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:25" ht="35.25" customHeight="1">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
@@ -5966,25 +5983,25 @@
       <c r="X18" s="12"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
